--- a/Scenariusze testowe/Scenariusz testowy AptekaSlonik 03 2019-001.xlsx
+++ b/Scenariusze testowe/Scenariusz testowy AptekaSlonik 03 2019-001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulina1\Documents\Paulina\cherry IT kurs\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FD8C12-EFD6-4B3B-BB6B-3FAB3D4D848B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFF46D-E84B-452E-9833-D3288B22DD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{AA6BAAD2-631F-4549-88B0-7364E864D4E9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
   <si>
     <t>Nr dokumentu</t>
   </si>
@@ -104,18 +104,6 @@
     <t>Testowane elementy</t>
   </si>
   <si>
-    <t>Zalogowanie się do systemu jako klient używając poprawnych danych do logowania.</t>
-  </si>
-  <si>
-    <t>Próba zalogowania się do systemu jako klient podając poprawny login i niepoprawne hasło.</t>
-  </si>
-  <si>
-    <t>Próba zalogowania się do systemu jako klient podając niepoprawny login i poprawne hasło.</t>
-  </si>
-  <si>
-    <t>Próba zalogowania się do systemu jako klient podając niepoprawny login i niepoprawne hasło.</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
@@ -146,15 +134,9 @@
     <t xml:space="preserve">8. </t>
   </si>
   <si>
-    <t>Poprawna rejestracja w systemie jako klient.</t>
-  </si>
-  <si>
     <t>Sprawdzenie możliwości zarejestrowania się w systemie jako klient.</t>
   </si>
   <si>
-    <t>Poprawna rejestracja w systemie potwierdzona komunikatem.</t>
-  </si>
-  <si>
     <t>Posiadanie adresu email, który nie był jeszcze rejestrowany na stronie http://www.aptekaslonik.pl/. Otworzenie strony  http://www.aptekaslonik.pl/ w przeglądarce.</t>
   </si>
   <si>
@@ -164,18 +146,6 @@
     <t xml:space="preserve">Rejestracja w systemie - przypadek negatywny. </t>
   </si>
   <si>
-    <t>Rejestracja w systemie jako klient podając poprawne dane w formularzu rejestracyjnym.</t>
-  </si>
-  <si>
-    <t>Próba zarejestrowania w systemie wpisując w pole login zarejestrowanego już systemie klienta.</t>
-  </si>
-  <si>
-    <t>Próba zarejestrowania w systemie wpisując niepoprawne dane w formularzu rejestracyjnym.</t>
-  </si>
-  <si>
-    <t>Próba zarejestrowania w systemie pozostawiając obowiązkowe pola puste w formularzu rejestracyjnym.</t>
-  </si>
-  <si>
     <t>Sprawdzenie czy można się zarejestrować podając login zarejestrowanego już użytkownika.</t>
   </si>
   <si>
@@ -191,9 +161,6 @@
     <t>Otworzenie strony  http://www.aptekaslonik.pl/ w przeglądarce.</t>
   </si>
   <si>
-    <t>Wpisanie we wszystkie wymagane pole w formularzu rejestracyjnym 3-znakowy ciąg znaków składający się z cyfr i znaków specjalnych, np. "1#9". Kliknięcie przycisku "ZAREJESTRUJ SIĘ"</t>
-  </si>
-  <si>
     <t>Wpisanie w pole "login" loginu zarejestrowanego już użytkownika i poprawne wypełnienie pozostałych danych w formularzu rejestracyjnym, kliknięcie przycisku "ZAREJESTRUJ SIĘ".</t>
   </si>
   <si>
@@ -249,6 +216,78 @@
   </si>
   <si>
     <t>Komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Hasło i Powtórz hasło powinny zawierać minimum 4 znaki; pole Ulica i nr domu musi zawierać przynajmniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przejście do formularza rejestracyjnego poprzez kliknięcie w "Rejestracja" w panelu Logowanie w celu wypełnienia formularza. </t>
+  </si>
+  <si>
+    <t>Poprawna rejestracja w systemie jako klient potwierdzona komunikatem.</t>
+  </si>
+  <si>
+    <t>Przejście do formularza rejestracyjnego poprzez kliknięcie w "Rejestracja" w panelu Logowanie w celu wypełnienia formularza i próby zarejestrowania się wpisując login zarejestrowanego już systemie klienta.</t>
+  </si>
+  <si>
+    <t>Wpisanie we wszystkie wymagane pole w formularzu rejestracyjnym 3-znakowy ciąg znaków składający się z cyfr i znaków specjalnych, np. "1#9". Kliknięcie przycisku "ZAREJESTRUJ SIĘ".</t>
+  </si>
+  <si>
+    <t>Przejście do formularza rejestracyjnego poprzez kliknięcie w "Rejestracja" w panelu Logowanie i próba rejestracji w systemie pozostawiając obowiązkowe pola puste w formularzu rejestracyjnym.</t>
+  </si>
+  <si>
+    <t>Przejście do formularza rejestracyjnego poprzez kliknięcie w "Rejestracja" w panelu Logowanie w celu wypełnienia formularza i próba rejestracji w systemie wpisując niepoprawne dane w formularzu rejestracyjnym.</t>
+  </si>
+  <si>
+    <t>Przejście do panelu logowania w celu zalogowania się jako klient.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Przejście do panelu logowania i próba zalogowania się do systemu jako klient podając poprawny login i niepoprawne hasło.</t>
+  </si>
+  <si>
+    <t>Przejście do panelu logowania i próba zalogowania się do systemu jako klient podając niepoprawny login i poprawne hasło.</t>
+  </si>
+  <si>
+    <t>Przejście do panelu logowania i próba zalogowania się do systemu jako klient podając niepoprawny login i niepoprawne hasło.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Wylogowanie się z systemu - przypadek negatywny.</t>
+  </si>
+  <si>
+    <t>Zalogowanie się prawidłowymi danymi w systemi, aby sprawdzić czy można się wylogować.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. </t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy można się poprawnie wylogować ze sklepu.</t>
+  </si>
+  <si>
+    <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/. Zalogowanie się na stronie http://www.aptekaslonik.pl/ jako klient.</t>
+  </si>
+  <si>
+    <t>Poprawne wylogowanie się z systemu.</t>
+  </si>
+  <si>
+    <t>Kliknięcie "Wyloguj" w panelu Moje konto.</t>
   </si>
 </sst>
 </file>
@@ -282,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -640,19 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -777,6 +803,58 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -785,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -813,28 +891,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,24 +919,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -871,13 +974,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -898,11 +1001,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,16 +1321,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED647B1-7B53-440F-884C-A63E6CFD1A77}">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
     <col min="4" max="4" width="41.77734375" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
@@ -1240,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1254,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
@@ -1265,10 +1368,12 @@
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30"/>
       <c r="D5" s="36" t="s">
         <v>5</v>
       </c>
@@ -1277,65 +1382,75 @@
       <c r="G5" s="37"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="35"/>
+    <row r="6" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="33" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="35"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+    <row r="7" spans="2:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="35"/>
       <c r="D10" s="33" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -1343,529 +1458,595 @@
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="46"/>
+      <c r="C18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+    </row>
+    <row r="19" spans="2:8" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="47"/>
+      <c r="C19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="46"/>
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="51"/>
+    </row>
+    <row r="22" spans="2:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="47"/>
+      <c r="C22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="2:8" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="46"/>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="2:8" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="47"/>
+      <c r="C25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="47"/>
+      <c r="C28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="26" t="s">
+      <c r="E29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="46"/>
+      <c r="C30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="41" t="s">
+      <c r="E30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="G30" s="55"/>
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="47"/>
+      <c r="C31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="D32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="47" t="s">
+      <c r="F32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="49"/>
+    </row>
+    <row r="33" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="46"/>
+      <c r="C33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="47"/>
+      <c r="C34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="46"/>
+      <c r="C36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="47"/>
+      <c r="C37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="53"/>
+    </row>
+    <row r="38" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="10" t="s">
+      <c r="C38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="49"/>
+    </row>
+    <row r="39" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="46"/>
+      <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="D39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-    </row>
-    <row r="18" spans="2:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="46"/>
-      <c r="C18" s="11" t="s">
+      <c r="F39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="47"/>
+      <c r="C40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="D40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="53"/>
+    </row>
+    <row r="41" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D41" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="10" t="s">
+      <c r="F41" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="49"/>
+    </row>
+    <row r="42" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="46"/>
+      <c r="C42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="2:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="46"/>
-      <c r="C21" s="11" t="s">
+      <c r="F42" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="55"/>
+      <c r="H42" s="51"/>
+    </row>
+    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="47"/>
+      <c r="C43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="2:8" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
-      <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="D43" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="2:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="46"/>
-      <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="48"/>
-    </row>
-    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="46"/>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="E45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="52"/>
-    </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="46"/>
-      <c r="C30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="52"/>
-    </row>
-    <row r="31" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="45"/>
-      <c r="C32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="50"/>
-    </row>
-    <row r="33" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="46"/>
-      <c r="C33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="48"/>
-    </row>
-    <row r="35" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="45"/>
-      <c r="C35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="50"/>
-    </row>
-    <row r="36" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="46"/>
-      <c r="C36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="52"/>
-    </row>
-    <row r="37" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="45"/>
-      <c r="C38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="50"/>
-    </row>
-    <row r="39" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="46"/>
-      <c r="C39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="52"/>
-    </row>
-    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="G31:H33"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="G37:H39"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="G34:H36"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="G28:H30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="31">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="G38:H40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G41:H43"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="G17:H19"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="G35:H37"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="G29:H31"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="G23:H25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="G26:H28"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="G32:H34"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Scenariusze testowe/Scenariusz testowy AptekaSlonik 03 2019-001.xlsx
+++ b/Scenariusze testowe/Scenariusz testowy AptekaSlonik 03 2019-001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulina1\Documents\Paulina\cherry IT kurs\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFF46D-E84B-452E-9833-D3288B22DD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994948D3-959C-4C9F-B089-2BAEC04733D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{AA6BAAD2-631F-4549-88B0-7364E864D4E9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>Nr dokumentu</t>
   </si>
@@ -95,12 +95,6 @@
     <t>AptekaSlonik/03/2019-001</t>
   </si>
   <si>
-    <t xml:space="preserve">Logowanie się do systemu - przypadek pozytywny. </t>
-  </si>
-  <si>
-    <t>Logowanie się do systemu - przypadek negatywny.</t>
-  </si>
-  <si>
     <t>Testowane elementy</t>
   </si>
   <si>
@@ -140,12 +134,6 @@
     <t>Posiadanie adresu email, który nie był jeszcze rejestrowany na stronie http://www.aptekaslonik.pl/. Otworzenie strony  http://www.aptekaslonik.pl/ w przeglądarce.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rejestracja w systemie - przypadek pozytywny. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rejestracja w systemie - przypadek negatywny. </t>
-  </si>
-  <si>
     <t>Sprawdzenie czy można się zarejestrować podając login zarejestrowanego już użytkownika.</t>
   </si>
   <si>
@@ -269,12 +257,6 @@
     <t>9.</t>
   </si>
   <si>
-    <t>Wylogowanie się z systemu - przypadek negatywny.</t>
-  </si>
-  <si>
-    <t>Zalogowanie się prawidłowymi danymi w systemi, aby sprawdzić czy można się wylogować.</t>
-  </si>
-  <si>
     <t xml:space="preserve">9. </t>
   </si>
   <si>
@@ -288,13 +270,46 @@
   </si>
   <si>
     <t>Kliknięcie "Wyloguj" w panelu Moje konto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja w systemie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja w systemie z podaniem loginu zarejertowanego już użytkownika - przypadek negatywny. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja w systemie z podaniem niepoprawnych danych - przypadek negatywny. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja w systemie z pozostawieniem pustego formularza - przypadek negatywny. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logowanie się do systemu. </t>
+  </si>
+  <si>
+    <t>Logowanie się do systemu z podaniem niepoprawnego hasła - przypadek negatywny.</t>
+  </si>
+  <si>
+    <t>Logowanie się do systemu z podaniem niepoprawnego loginu - przypadek negatywny.</t>
+  </si>
+  <si>
+    <t>Logowanie się do systemu z podaniem niepoprawnego hasła i niepoprawnego loginu - przypadek negatywny.</t>
+  </si>
+  <si>
+    <t>Wylogowanie się z systemu.</t>
+  </si>
+  <si>
+    <t>Zalogowanie się prawidłowymi danymi w systemie, aby sprawdzić czy można się wylogować.</t>
+  </si>
+  <si>
+    <t>http://www.aptekaslonik.pl/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +327,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -785,24 +809,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -812,6 +823,36 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -819,13 +860,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -838,32 +911,48 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -922,20 +1011,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -947,68 +1068,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1323,15 +1434,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED647B1-7B53-440F-884C-A63E6CFD1A77}">
   <dimension ref="B1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.5546875" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
@@ -1343,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1356,8 +1467,8 @@
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
+      <c r="C3" s="69" t="s">
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
@@ -1372,651 +1483,650 @@
         <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="2:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+    </row>
+    <row r="9" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="2:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="C12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-    </row>
-    <row r="10" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="C13" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="C14" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="49"/>
+        <v>59</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
+        <v>59</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="2:8" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="47"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="68" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="46"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="2:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="47"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="53"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="2:8" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="49"/>
+        <v>57</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="2:8" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="47"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="49"/>
+        <v>44</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="47"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="53"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="51"/>
+        <v>25</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="47"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="53"/>
-    </row>
-    <row r="32" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
-        <v>31</v>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="49"/>
+        <v>28</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="51"/>
-    </row>
-    <row r="34" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="47"/>
+        <v>28</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="36"/>
       <c r="C34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="53"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
-        <v>32</v>
+      <c r="B35" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="49"/>
+        <v>28</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="51"/>
-    </row>
-    <row r="37" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="47"/>
+        <v>28</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="36"/>
       <c r="C37" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="53"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
-        <v>33</v>
+      <c r="B38" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="49"/>
+        <v>28</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="46"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="51"/>
+        <v>28</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="47"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="53"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="45" t="s">
-        <v>81</v>
+      <c r="B41" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="49"/>
+        <v>78</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="51"/>
+        <v>78</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="47"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="53"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
+        <v>54</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B38:B40"/>
     <mergeCell ref="G38:H40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="G41:H43"/>
@@ -2047,8 +2157,12 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{25ADE493-40B9-40C5-BB3E-3402CB85127C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>